--- a/certificacion-de-promedio.xlsx
+++ b/certificacion-de-promedio.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\analiticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{8FC06F1B-D960-46C9-92EA-B37C937C21D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E5ABAF-5165-420F-883C-DC10F8ED94C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F90C8194-FCF3-4856-8E3E-4BA77E671F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -88,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,15 +127,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,12 +480,12 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -468,320 +497,322 @@
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="4">
         <f>SUM(D3:D20)/COUNT(A3:A20)</f>
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>9.8235294117647065</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5">
         <f>INDEX($H$2:$H$8,MATCH(C3,$G$2:$G$8,0))</f>
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D20" si="0">INDEX($H$2:$H$8,MATCH(C4,$G$2:$G$8,0))</f>
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G5">
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G6">
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G7">
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
         <v>9</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5">
         <f>INDEX($H$2:$H$8,MATCH(C14,$G$2:$G$8,0))</f>
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>

--- a/certificacion-de-promedio.xlsx
+++ b/certificacion-de-promedio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\analiticos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\analiticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E5ABAF-5165-420F-883C-DC10F8ED94C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3C8E1A-D5B3-4CFC-B04B-0AC40F13B1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F90C8194-FCF3-4856-8E3E-4BA77E671F39}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="10">
   <si>
     <t>C. conceptual</t>
   </si>
@@ -42,59 +42,35 @@
     <t>E. numérica</t>
   </si>
   <si>
-    <t>LENGUA</t>
-  </si>
-  <si>
-    <t>MATEMÁTICA</t>
-  </si>
-  <si>
-    <t>LENGUA EXTRANJERA</t>
-  </si>
-  <si>
-    <t>CIENCIAS SOCIALES: GEOGRAFÍA</t>
-  </si>
-  <si>
-    <t>CIENCIAS NATURALES</t>
-  </si>
-  <si>
-    <t>EDUCACIÓN FÍSICA</t>
-  </si>
-  <si>
-    <t>EDUCACIÓN ARTÍSTICA: MÚSICA</t>
-  </si>
-  <si>
     <t>BUENO</t>
-  </si>
-  <si>
-    <t>Promedio</t>
   </si>
   <si>
     <t>MUY BUENO</t>
   </si>
   <si>
-    <t>FORMACIÓN ÉTICA Y CIUDADANA</t>
+    <t>EXCELENTE</t>
   </si>
   <si>
-    <t>PRIMER AÑO</t>
+    <t>Primer año</t>
   </si>
   <si>
-    <t>SEGUNDO AÑO</t>
+    <t>Segundo año</t>
   </si>
   <si>
-    <t>CIENCIAS SOCIALES: HISTORIA</t>
+    <t>Tercer año</t>
   </si>
   <si>
-    <t>EXCELENTE</t>
+    <t>Cuarto año</t>
+  </si>
+  <si>
+    <t>Quinto año</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +86,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -146,21 +172,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -169,6 +210,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -477,347 +523,619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD22EB5B-783E-4A0E-ABD3-CD45F2274BF6}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" activeCellId="1" sqref="B3:B15 J3:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="4">
-        <f>SUM(D3:D20)/COUNT(A3:A20)</f>
-        <v>9.8235294117647065</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5">
-        <f>INDEX($H$2:$H$8,MATCH(C3,$G$2:$G$8,0))</f>
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
+      <c r="E2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A3,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(C3,$L$3:$L$9,0))</f>
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(E3,$L$3:$L$9,0))</f>
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="H3" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:D20" si="0">INDEX($H$2:$H$8,MATCH(C4,$G$2:$G$8,0))</f>
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
+        <f>INDEX($M$3:$M$9,MATCH(G3,$L$3:$L$9,0))</f>
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(I3,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A4,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D15" si="0">INDEX($M$3:$M$9,MATCH(C4,$L$3:$L$9,0))</f>
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F15" si="1">INDEX($M$3:$M$9,MATCH(E4,$L$3:$L$9,0))</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="H4" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5">
+        <f t="shared" ref="H4:H15" si="2">INDEX($M$3:$M$9,MATCH(G4,$L$3:$L$9,0))</f>
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J15" si="3">INDEX($M$3:$M$9,MATCH(I4,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A5,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G5" s="3">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="H5" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A6,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G6" s="3">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A7,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L7" s="1">
         <v>8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="M7" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A8,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G7" s="3">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9</v>
+      </c>
+      <c r="M8" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A9,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A10,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A11,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A12,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A13,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5">
-        <f>INDEX($H$2:$H$8,MATCH(C14,$G$2:$G$8,0))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A14,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="5">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <f>INDEX($M$3:$M$9,MATCH(A15,$L$3:$L$9,0))</f>
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/certificacion-de-promedio.xlsx
+++ b/certificacion-de-promedio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\analiticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3C8E1A-D5B3-4CFC-B04B-0AC40F13B1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB05A0D2-CDCC-4F9B-ADAC-A0762C39589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F90C8194-FCF3-4856-8E3E-4BA77E671F39}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="11">
   <si>
     <t>C. conceptual</t>
   </si>
@@ -65,12 +65,15 @@
   <si>
     <t>Quinto año</t>
   </si>
+  <si>
+    <t>PROMEDIO:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +97,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +156,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -172,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,6 +199,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -198,10 +222,8 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -224,6 +246,69 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4401911" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311F9145-44D9-4BB9-920F-E232C09A1E5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="3648075"/>
+          <a:ext cx="4401911" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="2400" b="1"/>
+            <a:t>RES. DE PROMEDIO 1398-DGE-01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD22EB5B-783E-4A0E-ABD3-CD45F2274BF6}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" activeCellId="1" sqref="B3:B15 J3:J15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,62 +631,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -610,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A3,$L$3:$L$9,0))</f>
+        <f t="shared" ref="B3:B15" si="0">INDEX($M$3:$M$9,MATCH(A3,$L$3:$L$9,0))</f>
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -653,35 +738,35 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A4,$L$3:$L$9,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D15" si="0">INDEX($M$3:$M$9,MATCH(C4,$L$3:$L$9,0))</f>
+        <f t="shared" ref="D4:D15" si="1">INDEX($M$3:$M$9,MATCH(C4,$L$3:$L$9,0))</f>
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F15" si="1">INDEX($M$3:$M$9,MATCH(E4,$L$3:$L$9,0))</f>
+        <f t="shared" ref="F4:F15" si="2">INDEX($M$3:$M$9,MATCH(E4,$L$3:$L$9,0))</f>
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H15" si="2">INDEX($M$3:$M$9,MATCH(G4,$L$3:$L$9,0))</f>
+        <f t="shared" ref="H4:H15" si="3">INDEX($M$3:$M$9,MATCH(G4,$L$3:$L$9,0))</f>
         <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J15" si="3">INDEX($M$3:$M$9,MATCH(I4,$L$3:$L$9,0))</f>
+        <f t="shared" ref="J4:J15" si="4">INDEX($M$3:$M$9,MATCH(I4,$L$3:$L$9,0))</f>
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -696,35 +781,35 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A5,$L$3:$L$9,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -739,35 +824,35 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A6,$L$3:$L$9,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="L6" s="1">
@@ -782,35 +867,35 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A7,$L$3:$L$9,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="L7" s="1">
@@ -825,35 +910,35 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A8,$L$3:$L$9,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="L8" s="1">
@@ -868,35 +953,35 @@
         <v>4</v>
       </c>
       <c r="B9" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A9,$L$3:$L$9,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="L9" s="1">
@@ -911,35 +996,35 @@
         <v>4</v>
       </c>
       <c r="B10" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A10,$L$3:$L$9,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -948,35 +1033,35 @@
         <v>4</v>
       </c>
       <c r="B11" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A11,$L$3:$L$9,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -985,35 +1070,35 @@
         <v>4</v>
       </c>
       <c r="B12" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A12,$L$3:$L$9,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -1022,35 +1107,35 @@
         <v>4</v>
       </c>
       <c r="B13" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A13,$L$3:$L$9,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -1059,35 +1144,35 @@
         <v>4</v>
       </c>
       <c r="B14" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A14,$L$3:$L$9,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -1096,36 +1181,45 @@
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <f>INDEX($M$3:$M$9,MATCH(A15,$L$3:$L$9,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="12">
+        <f>AVERAGE(D3:D15,F3:F15)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1138,5 +1232,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/certificacion-de-promedio.xlsx
+++ b/certificacion-de-promedio.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\analiticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB05A0D2-CDCC-4F9B-ADAC-A0762C39589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F597EAD0-FBD9-4935-834F-817F850661B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F90C8194-FCF3-4856-8E3E-4BA77E671F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="12">
   <si>
     <t>C. conceptual</t>
   </si>
@@ -68,6 +69,9 @@
   <si>
     <t>PROMEDIO:</t>
   </si>
+  <si>
+    <t>#3411"#?=4monl</t>
+  </si>
 </sst>
 </file>
 
@@ -75,14 +79,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,6 +97,14 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -201,29 +205,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -611,7 +615,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,27 +634,27 @@
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -692,11 +696,11 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B15" si="0">INDEX($M$3:$M$9,MATCH(A3,$L$3:$L$9,0))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1214,12 +1218,12 @@
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="12">
-        <f>AVERAGE(D3:D15,F3:F15)</f>
-        <v>8</v>
+        <f>AVERAGE(B3:B15,D3:D15,F3:F15,H3:H15,J3:J15)</f>
+        <v>8.953846153846154</v>
       </c>
     </row>
   </sheetData>
@@ -1234,4 +1238,32 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD9C31-C6BE-4029-95D7-DF3A9E5CA2F4}">
+  <dimension ref="B3:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="str">
+        <f>0&amp;B3</f>
+        <v>0#3411"#?=4monl</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/certificacion-de-promedio.xlsx
+++ b/certificacion-de-promedio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\analiticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F597EAD0-FBD9-4935-834F-817F850661B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B4B4BB-8B4C-4991-B6C3-E594640B81DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F90C8194-FCF3-4856-8E3E-4BA77E671F39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F90C8194-FCF3-4856-8E3E-4BA77E671F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="11">
   <si>
     <t>C. conceptual</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>PROMEDIO:</t>
-  </si>
-  <si>
-    <t>#3411"#?=4monl</t>
   </si>
 </sst>
 </file>
@@ -212,6 +209,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -226,9 +226,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD22EB5B-783E-4A0E-ABD3-CD45F2274BF6}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -635,26 +632,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1221,7 +1218,7 @@
       <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="7">
         <f>AVERAGE(B3:B15,D3:D15,F3:F15,H3:H15,J3:J15)</f>
         <v>8.953846153846154</v>
       </c>
@@ -1242,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD9C31-C6BE-4029-95D7-DF3A9E5CA2F4}">
-  <dimension ref="B3:D3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,17 +1250,7 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="str">
-        <f>0&amp;B3</f>
-        <v>0#3411"#?=4monl</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>